--- a/data/spreadsheets/Video.xlsx
+++ b/data/spreadsheets/Video.xlsx
@@ -5,18 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/Cloned_GitHub_repos/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C880779F-6A4F-B740-908F-E2C130F3EB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B619BE-0A88-134A-88B7-684EA7CAF986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18540" yWindow="3440" windowWidth="53380" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -71,9 +82,6 @@
 Alice's Mother - Lotta Savoy</t>
   </si>
   <si>
-    <t>data/Multimedia_Data/Video/</t>
-  </si>
-  <si>
     <t>Alice in Wonderland 1915</t>
   </si>
   <si>
@@ -92,6 +100,9 @@
     <t>Movie adaptation of the book Alice in Wonderland, dating to 1915. 
 The film combines the chapters from Through the Looking-Glass with those of Alice’s Adventures in Wonderland. 
 However, most of the looking-glass portion is lost.</t>
+  </si>
+  <si>
+    <t>data/multimedia/video/</t>
   </si>
 </sst>
 </file>
@@ -166,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -181,6 +192,7 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,7 +389,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -432,28 +444,28 @@
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="152.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/spreadsheets/Video.xlsx
+++ b/data/spreadsheets/Video.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/Cloned_GitHub_repos/daschland-scripts/data/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B619BE-0A88-134A-88B7-684EA7CAF986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CCD471-EF4C-A74B-A8CA-AFB52CC4EBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="46600" windowHeight="30200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>data/multimedia/video/</t>
+  </si>
+  <si>
+    <t>Authorship Resource</t>
+  </si>
+  <si>
+    <t>Noémi Villars-Amberg, Daniela Subotic</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -193,6 +199,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -402,9 +409,10 @@
     <col min="7" max="7" width="13.83203125" customWidth="1"/>
     <col min="9" max="9" width="24.5" customWidth="1"/>
     <col min="10" max="10" width="81" customWidth="1"/>
+    <col min="11" max="11" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,8 +443,11 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -467,10 +478,13 @@
       <c r="J2" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="K2" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="152.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:11" ht="152.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
